--- a/customers.xlsx
+++ b/customers.xlsx
@@ -7259,10 +7259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I301"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7276,9 +7276,10 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2290</v>
       </c>
@@ -7307,7 +7308,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7335,8 +7336,12 @@
       <c r="I2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>"INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"');"</f>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('1','Calash Ltd.','88 Rinkomania Lane','Cardigan','SA55 8BA','01167 1595763','Cameron','Dunnico','c.dunnico@calash.co.uk');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7364,8 +7369,12 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="0">"INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"');"</f>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('2','Stichomancy &amp; Co','17 Suspiration Street','Okehampton','EX48 4CG','01450 2312678','Henry','Petts','h.petts@stichomancy.co.uk');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7393,8 +7402,12 @@
       <c r="I4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('3','Trochiline Services','15 Upcast Street','Carrbridge','PH24 0BF','01222 9556982','Richard','Hanford','r.hanford@trochiline.co.uk');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7422,8 +7435,12 @@
       <c r="I5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('4','Evaginate Inc.','9 Miniaceous Mount','Longfield','DA20 1DE','01231 7692992','Edmund','Janson','e.janson@evaginate.co.uk');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7451,8 +7468,12 @@
       <c r="I6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('5','Medius Inc.','30 Emiction Street','Darwen','BB94 8BA','01635 9715635','Adrian','Munkley','a.munkley@medius.co.uk');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7480,8 +7501,12 @@
       <c r="I7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('6','Queenright Services','46 Telson Passage','Wells','BA84 7GF','0169 3657311','Marley','Bedburrow','m.bedburrow@queenright.co.uk');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7509,8 +7534,12 @@
       <c r="I8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('7','Noumenalism Plc','50 Tirocinium Road','Tighnabruaich','PA94 1EC','01965 3354820','Ronan','Mackerel','r.mackerel@noumenalism.co.uk');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7538,8 +7567,12 @@
       <c r="I9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('8','Homologate Ltd.','99 Amaxophobia Green','Blandford Forum','DT62 7CD','01908 1302626','Cliff','MacQueen','c.macqueen@homologate.co.uk');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7567,8 +7600,12 @@
       <c r="I10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('9','Privative Inc.','88 Schematonics Gardens','Staines-upon-Thames','TW46 1GB','01385 6814908','Crispin','MacCallister','c.maccallister@privative.co.uk');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7596,8 +7633,12 @@
       <c r="I11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('10','Falciform Services','41 Ingannation Gardens','Shrewsbury','SY44 6AA','01135 1234939','Igor','Hains','i.hains@falciform.co.uk');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7625,8 +7666,12 @@
       <c r="I12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('11','Lollop Group','87 Anticryptic Avenue','Glasgow','G66 4BD','01112 4839043','Arden','Cow','a.cow@lollop.co.uk');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7654,8 +7699,12 @@
       <c r="I13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('12','Afforest Group','71 Faburden Road','Killin','FK2 8FD','01231 5591921','Taylor','Windaybank','t.windaybank@afforest.co.uk');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7683,8 +7732,12 @@
       <c r="I14" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('13','Trangam Retail','81 Inquinate Road','Lymm','WA52 2FE','01115 8973091','Hamilton','McGuckin','h.mcguckin@trangam.co.uk');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7712,8 +7765,12 @@
       <c r="I15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('14','Salutary Industrial','68 Obsequent Gardens','Aberfeldy','PH17 5GC','01767 5938733','Stanley','Magog','s.magog@salutary.co.uk');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7741,8 +7798,12 @@
       <c r="I16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('15','Noctidiurnal Ltd.','87 Phengite Avenue','Bath','BA67 5GE','01298 5876286','Leroy','Monnelly','l.monnelly@noctidiurnal.co.uk');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7770,8 +7831,12 @@
       <c r="I17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('16','Cocotte Inc.','69 Chiliomb Road','Cowes','PO62 5FF','01760 6319406','Chris','Curless','c.curless@cocotte.co.uk');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7799,8 +7864,12 @@
       <c r="I18" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('17','Iatrogenic Ltd.','54 Wantage Road','Gordon','TD10 6AG','01131 4437249','Glyn','Bedow','g.bedow@iatrogenic.co.uk');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7828,8 +7897,12 @@
       <c r="I19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('18','Parados Services','93 Saltigrade Road','New Malden','KT26 1BF','01730 6367575','Christian','Saffran','c.saffran@parados.co.uk');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7857,8 +7930,12 @@
       <c r="I20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('19','Sylph Fabrication','6 Venencia Circle','Grange-over-Sands','LA52 5AG','01204 2943611','Salim','Blencoe','s.blencoe@sylph.co.uk');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7886,8 +7963,12 @@
       <c r="I21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('20','Gallipot Inc.','34 Haurient Row','Basildon','SS24 2CD','01868 4327697','Grant','Rowlands','g.rowlands@gallipot.co.uk');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7915,8 +7996,12 @@
       <c r="I22" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('21','Sponsion &amp; Co','76 Urbiculture Path','Clitheroe','BB14 4GE','01407 4478738','Joshua','Van der Daal','j.van.der.daal@sponsion.co.uk');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7944,8 +8029,12 @@
       <c r="I23" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('22','Tubicornous Fabrication','62 Lutestring Road','Dulas','LL83 3DA','01466 1750823','Elan','Lenchenko','e.lenchenko@tubicornous.co.uk');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7973,8 +8062,12 @@
       <c r="I24" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('23','Jaconet Group','36 Regolith Gate','Barnoldswick','BB89 3GC','01147 8327287','Chris','Froschauer','c.froschauer@jaconet.co.uk');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8002,8 +8095,12 @@
       <c r="I25" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('24','Benefice Retail','33 Febricant Hill','Malton','YO28 3FC','01772 1802720','Earle','Elan','e.elan@benefice.co.uk');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8031,8 +8128,12 @@
       <c r="I26" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('25','Tholus Fabrication','33 Versiform Parkway','Petworth','GU26 4DE','01529 9639453','Xenos','De Andisie','x.de.andisie@tholus.co.uk');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8060,8 +8161,12 @@
       <c r="I27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('26','Psaltery Fabrication','47 Wallydrag Street','Bucknell','SY68 1EA','01993 3239511','Amal','Francisco','a.francisco@psaltery.co.uk');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8089,8 +8194,12 @@
       <c r="I28" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('27','Vibraslap Services','92 Bagging Street','Herne Bay','CT19 3CF','0122 3344500','Charlie','Eouzan','c.eouzan@vibraslap.co.uk');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8118,8 +8227,12 @@
       <c r="I29" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('28','Boniform Retail','29 Gossypine Canyon','Porth','CF87 5CB','01364 4257720','Norris','Dahlman','n.dahlman@boniform.co.uk');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8147,8 +8260,12 @@
       <c r="I30" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('29','Parvis Fabrication','21 Murrain Dell','Kingussie','PH79 3CC','01693 4283053','Ernst','Letson','e.letson@parvis.co.uk');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8176,8 +8293,12 @@
       <c r="I31" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('30','Succinic Industrial','41 Beeskep Hill','Sutton','SM31 7AD','01501 4034312','George','Nunnery','g.nunnery@succinic.co.uk');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8205,8 +8326,12 @@
       <c r="I32" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('31','Macerate Fabrication','39 Batiste Passage','Bedworth','CV33 2AB','01244 3464789','Lysander','Summerrell','l.summerrell@macerate.co.uk');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8234,8 +8359,12 @@
       <c r="I33" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('32','Lissome Inc.','36 Aubergine Dell','Dartmouth','TQ21 1ED','01393 8601859','Mark','Helsby','m.helsby@lissome.co.uk');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8263,8 +8392,12 @@
       <c r="I34" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('33','Formic Fabrication','25 Sapor Place','Grange-over-Sands','LA86 7BG','01688 2636192','Angus','Cawdell','a.cawdell@formic.co.uk');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8292,8 +8425,12 @@
       <c r="I35" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('34','Tubulure Fabrication','11 Cabriolet Road','Markfield','LE77 0GA','01471 6836122','Heathcliff','Ragat','h.ragat@tubulure.co.uk');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8321,8 +8458,12 @@
       <c r="I36" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('35','Demiurge Inc.','82 Narcolepsy Causeway','Kilwinning','KA71 8DD','01848 7106959','Mungo','Cote','m.cote@demiurge.co.uk');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8350,8 +8491,12 @@
       <c r="I37" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('36','Primitial Fabrication','68 Synchroscope Street','Burntisland','KY92 1EE','01412 8350708','Adil','Munnery','a.munnery@primitial.co.uk');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8379,8 +8524,12 @@
       <c r="I38" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('37','Helicon Industrial','10 Formate Place','Melton Constable','NR24 2EE','01755 7031734','Sherman','Seacroft','s.seacroft@helicon.co.uk');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8408,8 +8557,12 @@
       <c r="I39" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('38','Ambulatory Inc.','21 Scotoma Gate','North Tawton','EX8 3AB','01238 2766059','Jack','Gronw','j.gronw@ambulatory.co.uk');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8437,8 +8590,12 @@
       <c r="I40" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('39','Tourbillon Services','95 Sederunt Avenue','Kingussie','PH74 6DE','01876 7011236','Sebastian','Searson','s.searson@tourbillon.co.uk');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8466,8 +8623,12 @@
       <c r="I41" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f>"INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('"&amp;A41&amp;"','"&amp;B41&amp;"','"&amp;C41&amp;"','"&amp;D41&amp;"','"&amp;E41&amp;"','"&amp;F41&amp;"','"&amp;G41&amp;"','"&amp;H41&amp;"','"&amp;I41&amp;"');"</f>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('40','Tempore Retail','9 Chanticleer Drive','Coventry','CV75 6EE','01259 2190483','Keane','O''Feeney','k.ofeeney@tempore.co.uk');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8495,8 +8656,12 @@
       <c r="I42" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('41','Equanimity &amp; Co','47 Textuary Canyon','West Molesey','KT86 1BE','01283 1210366','Yusuf','Tourry','y.tourry@equanimity.co.uk');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8524,8 +8689,12 @@
       <c r="I43" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('42','Kinkle Services','85 Protogenic Road','Llanon','SY75 0GD','01319 8511255','Leonardo','Beeson','l.beeson@kinkle.co.uk');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8553,8 +8722,12 @@
       <c r="I44" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('43','Pectize Services','53 Tenue Lane','Mayfield','TN8 3AD','01966 9036741','Reuben','Grund','r.grund@pectize.co.uk');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8582,8 +8755,12 @@
       <c r="I45" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('44','Abarticular Industrial','60 Ostraceous Drive','Nuneaton','CV39 8FF','01724 1741357','Earle','Kopman','e.kopman@abarticular.co.uk');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8611,8 +8788,12 @@
       <c r="I46" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('45','Foinery Plc','24 Welkin Street','Llanidloes','SY49 7FG','01149 3002377','Erin','Cloy','e.cloy@foinery.co.uk');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8640,8 +8821,12 @@
       <c r="I47" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('46','Papyrocracy Ltd.','48 Ripieno Road','Bexleyheath','DA74 1BF','01792 3334605','Argus','Scandroot','a.scandroot@papyrocracy.co.uk');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8669,8 +8854,12 @@
       <c r="I48" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('47','Grabble Retail','11 Gynocracy Gardens','Peebles','EH8 3GA','01863 8745298','Chris','Ivan','c.ivan@grabble.co.uk');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8698,8 +8887,12 @@
       <c r="I49" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('48','Throstle Group','18 Synecdoche Canyon','Menstrie','FK29 6GD','0151 5090882','Fritz','Cherm','f.cherm@throstle.co.uk');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8727,8 +8920,12 @@
       <c r="I50" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('49','Dubitate Inc.','2 Indue Gardens','North Ferriby','HU94 7BG','01737 7632357','Paco','Bristo','p.bristo@dubitate.co.uk');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8756,8 +8953,12 @@
       <c r="I51" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('50','Messuage &amp; Co','25 Beloid Avenue','Ringwood','BH58 8CC','01540 9822467','Broderick','Josowitz','b.josowitz@messuage.co.uk');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8785,8 +8986,12 @@
       <c r="I52" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('51','Elephantine Ltd.','22 Plosion Street','Cranbrook','TN77 6EA','01546 1496259','Cain','Lillo','c.lillo@elephantine.co.uk');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8814,8 +9019,12 @@
       <c r="I53" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('52','Nosophobia Fabrication','39 Trifarious Dell','Gateshead','NE95 2AD','01930 7579193','Cliff','Sinkinson','c.sinkinson@nosophobia.co.uk');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8843,8 +9052,12 @@
       <c r="I54" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('53','Jejune Group','93 Earing Road','Juniper Green','EH59 5AE','01321 5774066','Samuel','Flament','s.flament@jejune.co.uk');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8872,8 +9085,12 @@
       <c r="I55" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('54','Cagamosis Inc.','36 Muchity Green','Dunblane','FK47 7EC','01162 7892608','Gareth','Tolcher','g.tolcher@cagamosis.co.uk');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8901,8 +9118,12 @@
       <c r="I56" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('55','Palillogy Industrial','7 Hyperdulia Rise','Kilwinning','KA25 1EF','01436 4692974','Fergus','Bushen','f.bushen@palillogy.co.uk');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8930,8 +9151,12 @@
       <c r="I57" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('56','Octroi Ltd.','24 Halophilous Row','Gillingham','ME73 6AA','01139 7616881','James','Rustidge','j.rustidge@octroi.co.uk');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8959,8 +9184,12 @@
       <c r="I58" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('57','Maskirovka Fabrication','82 Exarch Hill','Fivemiletown','BT84 7CB','0125 7659423','Reece','Hurdedge','r.hurdedge@maskirovka.co.uk');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8988,8 +9217,12 @@
       <c r="I59" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('58','Quixotic Inc.','88 Jesuitocracy Dell','Lincoln','LN94 7CB','01475 8558624','Mustafa','Storrier','m.storrier@quixotic.co.uk');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9017,8 +9250,12 @@
       <c r="I60" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('59','Frieze Inc.','47 Landocracy Avenue','Purley','CR45 4BG','01392 4288297','Aladdin','Skade','a.skade@frieze.co.uk');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9046,8 +9283,12 @@
       <c r="I61" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('60','Disbosom Fabrication','37 Quartic Square','Melton Mowbray','LE20 2EG','01916 9630480','Ulric','Stickel','u.stickel@disbosom.co.uk');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9075,8 +9316,12 @@
       <c r="I62" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('61','Peristyle Industrial','14 Postprandial Passage','Ibstock','LE47 4EF','01218 9515255','Eugene','Derrick','e.derrick@peristyle.co.uk');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9104,8 +9349,12 @@
       <c r="I63" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('62','Cocotte &amp; Co','28 Neophobia Street','Haddington','EH37 0FA','01428 6995716','Connor','Braunton','c.braunton@cocotte.co.uk');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9133,8 +9382,12 @@
       <c r="I64" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('63','Trochoid Industrial','49 Eurythermic Gate','Enniskillen','BT21 6AE','01828 1447231','Carl','Delgua','c.delgua@trochoid.co.uk');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9162,8 +9415,12 @@
       <c r="I65" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('64','Cantle Inc.','25 Subaltern Mount','Irvine','KA23 7CD','01863 7743245','Fabio','Baistow','f.baistow@cantle.co.uk');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9191,8 +9448,12 @@
       <c r="I66" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('65','Impropriate Inc.','33 Gestatorial Mews','Newtonmore','PH37 8FD','01374 2096753','Ferdinand','Beese','f.beese@impropriate.co.uk');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9220,8 +9481,12 @@
       <c r="I67" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J130" si="1">"INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;D67&amp;"','"&amp;E67&amp;"','"&amp;F67&amp;"','"&amp;G67&amp;"','"&amp;H67&amp;"','"&amp;I67&amp;"');"</f>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('66','Zubrowka &amp; Co','70 Procuratory Street','Builth Wells','LD86 6EF','01543 3857829','Oliver','Simo','o.simo@zubrowka.co.uk');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9249,8 +9514,12 @@
       <c r="I68" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('67','Dromophobia &amp; Co','70 Sidelight Causeway','Rochford','SS61 4BB','01405 9874926','Neville','Dimitriev','n.dimitriev@dromophobia.co.uk');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9278,8 +9547,12 @@
       <c r="I69" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('68','Telegnosis Plc','89 Accend Canyon','Chinnor','OX5 3CB','01434 8466691','Ardal','Bothwell','a.bothwell@telegnosis.co.uk');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9307,8 +9580,12 @@
       <c r="I70" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('69','Washball &amp; Co','7 Crebrous Gate','Liss','GU56 3CE','01368 9699799','Xerxes','Curedale','x.curedale@washball.co.uk');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9336,8 +9613,12 @@
       <c r="I71" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('70','Aesthesia &amp; Co','60 Hedonics Circle','Buckingham','MK14 0CB','01309 1667988','Curt','Krysztowczyk','c.krysztowczyk@aesthesia.co.uk');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9365,8 +9646,12 @@
       <c r="I72" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('71','Whistler Ltd.','78 Illinition Place','Middlewich','CW0 7FB','0122 6848366','Travis','Keizman','t.keizman@whistler.co.uk');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9394,8 +9679,12 @@
       <c r="I73" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('72','Succorrhoea Group','96 Filiform Avenue','Ayr','KA58 7EE','01811 3048632','Gideon','Weed','g.weed@succorrhoea.co.uk');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9423,8 +9712,12 @@
       <c r="I74" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('73','Tondo Fabrication','15 Motiferous Drive','Fort Augustus','PH25 8BF','01334 3944443','Ulric','Leblanc','u.leblanc@tondo.co.uk');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9452,8 +9745,12 @@
       <c r="I75" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('74','Zoolatry Retail','46 Vortical Passage','Buckfastleigh','TQ83 6AA','01215 6944964','Alvin','Goolding','a.goolding@zoolatry.co.uk');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9481,8 +9778,12 @@
       <c r="I76" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('75','Ergomania Services','53 Echinuliform Hill','Pembroke Dock','SA98 6DE','01238 4735235','Barry','Wheelan','b.wheelan@ergomania.co.uk');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9510,8 +9811,12 @@
       <c r="I77" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('76','Usitative Retail','63 Deiparous Square','Stanmore','HA16 4EG','01255 9605173','Francis','Craw','f.craw@usitative.co.uk');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9539,8 +9844,12 @@
       <c r="I78" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('77','Carfax &amp; Co','98 Emblements Square','Portsmouth','PO46 5GE','01126 7511835','Miles','Lander','m.lander@carfax.co.uk');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9568,8 +9877,12 @@
       <c r="I79" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('78','Congiary Fabrication','94 Burgage Mount','Chippenham','SN49 8GA','01437 9954041','Alden','Czajka','a.czajka@congiary.co.uk');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9597,8 +9910,12 @@
       <c r="I80" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('79','Exsert Plc','100 Theca Dell','Portland','DT2 5BG','0181 7341641','Shakir','Ellerington','s.ellerington@exsert.co.uk');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -9626,8 +9943,12 @@
       <c r="I81" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('80','Wurzel Group','11 Adhocracy Square','Plymouth','PL93 8EB','01397 8369693','Andre','Mathews','a.mathews@wurzel.co.uk');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -9655,8 +9976,12 @@
       <c r="I82" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('81','Rhytidectomy Retail','6 Genitive Green','Southampton','SO0 5FB','01798 5614549','Thomas','Texton','t.texton@rhytidectomy.co.uk');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -9684,8 +10009,12 @@
       <c r="I83" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('82','Medusiform Industrial','69 Spall Lane','Juniper Green','EH8 5AG','01932 9993905','Niall','Scrane','n.scrane@medusiform.co.uk');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9713,8 +10042,12 @@
       <c r="I84" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('83','Spall Industrial','90 Subreptary Street','Insch','AB95 5AF','0111 7090401','Godfrey','Girton','g.girton@spall.co.uk');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9742,8 +10075,12 @@
       <c r="I85" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('84','Sarcous Ltd.','59 Vermigerous Gardens','Llanerchymedd','LL39 4EB','01907 4314281','Barney','Felce','b.felce@sarcous.co.uk');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9771,8 +10108,12 @@
       <c r="I86" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('85','Sundog Group','92 Eosophobia Street','Oldham','OL88 1BD','0166 9438913','Bartram','Fritschel','b.fritschel@sundog.co.uk');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9800,8 +10141,12 @@
       <c r="I87" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('86','Anguine &amp; Co','26 Univoltine Green','Attleborough','NR49 7EA','01736 6772508','Benet','Boulding','b.boulding@anguine.co.uk');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9829,8 +10174,12 @@
       <c r="I88" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('87','Jockteleg Retail','94 Sarcotic Gardens','Frodsham','WA85 3GB','01803 1419252','Sadiq','Beazer','s.beazer@jockteleg.co.uk');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9858,8 +10207,12 @@
       <c r="I89" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('88','Surcingle Ltd.','18 Avalement Street','Stourbridge','DY78 7FC','01627 4362452','Dirk','Sand','d.sand@surcingle.co.uk');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9887,8 +10240,12 @@
       <c r="I90" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('89','Inoperculate Retail','32 Glandiferous Parkway','Beverley','HU37 8FG','0158 3525895','Homer','Furzer','h.furzer@inoperculate.co.uk');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9916,8 +10273,12 @@
       <c r="I91" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('90','Kissel Fabrication','19 Deasil Square','Runcorn','WA19 8AF','01787 7014375','Wilson','Dickings','w.dickings@kissel.co.uk');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9945,8 +10306,12 @@
       <c r="I92" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('91','Smalt Services','53 Backstay Road','Rotherham','S43 1DB','01842 8456583','Brennan','Surcombe','b.surcombe@smalt.co.uk');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9974,8 +10339,12 @@
       <c r="I93" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('92','Radicivorous Inc.','93 Scantling Place','Lichfield','WS6 6FD','01539 7297860','Ogden','Raikes','o.raikes@radicivorous.co.uk');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10003,8 +10372,12 @@
       <c r="I94" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('93','Recaption Inc.','69 Lactescent Rise','Harpenden','AL63 4BG','01346 1078827','Ahmed','Freschini','a.freschini@recaption.co.uk');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10032,8 +10405,12 @@
       <c r="I95" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('94','Isostere Retail','85 Rampant Street','Jarrow','NE53 3FD','0155 5792803','Vaughan','MacCostye','v.maccostye@isostere.co.uk');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10061,8 +10438,12 @@
       <c r="I96" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('95','Incede Plc','17 Absentaneous Passage','Hailsham','BN90 6DF','01130 5470277','Glen','Snare','g.snare@incede.co.uk');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10090,8 +10471,12 @@
       <c r="I97" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('96','Stipiform Fabrication','77 Synastry Rise','Sheerness','ME46 6AE','01276 6598360','Nikko','Jarret','n.jarret@stipiform.co.uk');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10119,8 +10504,12 @@
       <c r="I98" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('97','Wuffler &amp; Co','92 Loxodromy Circle','Aldeburgh','IP24 0AF','01825 8513835','Jeremy','Coldbath','j.coldbath@wuffler.co.uk');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10148,8 +10537,12 @@
       <c r="I99" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('98','Remueur Inc.','35 Hearsecloth Passage','North Walsham','NR11 0AB','01342 2368209','Raphael','Vickerman','r.vickerman@remueur.co.uk');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10177,8 +10570,12 @@
       <c r="I100" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('99','Temerarious &amp; Co','32 Zibeline Street','Arisaig','PH81 3CE','01912 5106009','Gunther','Poge','g.poge@temerarious.co.uk');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10206,8 +10603,12 @@
       <c r="I101" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('100','Stevedorage Group','91 Dorsiventral Parkway','Tenterden','TN41 6CE','01378 9650488','Bram','Shimmans','b.shimmans@stevedorage.co.uk');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10235,8 +10636,12 @@
       <c r="I102" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('101','Ondoyant &amp; Co','76 Aeriform Rise','Rhyl','LL16 8DE','01544 6018280','Norman','Jagiela','n.jagiela@ondoyant.co.uk');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10264,8 +10669,12 @@
       <c r="I103" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('102','Rubescent Plc','34 Disomus Green','Burford','OX38 1DD','01123 4407910','Graham','Bartoletti','g.bartoletti@rubescent.co.uk');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10293,8 +10702,12 @@
       <c r="I104" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('103','Gazar Ltd.','7 Exungulation Canyon','Dereham','NR73 2EA','01689 6140136','Rogan','Scarre','r.scarre@gazar.co.uk');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10322,8 +10735,12 @@
       <c r="I105" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('104','Mewling Inc.','77 Hierocracy Gardens','Bures','CO9 7EE','01959 7925209','Gilbert','Rugge','g.rugge@mewling.co.uk');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10351,8 +10768,12 @@
       <c r="I106" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('105','Homomerous Retail','26 Opsimath Causeway','Barrow-upon-Humber','DN80 7CA','01152 7421448','Gerald','Harsent','g.harsent@homomerous.co.uk');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10380,8 +10801,12 @@
       <c r="I107" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('106','Bosselated &amp; Co','30 Patulous Rise','Paisley','PA11 4GE','01971 3144966','Wallace','Culleton','w.culleton@bosselated.co.uk');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -10409,8 +10834,12 @@
       <c r="I108" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('107','Shide Industrial','31 Plangorous Circle','Kington','HR62 4DC','01104 8040677','Ogden','Juara','o.juara@shide.co.uk');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -10438,8 +10867,12 @@
       <c r="I109" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('108','Pelagic Inc.','53 Clypeate Green','Umberleigh','EX36 2GE','01762 2567675','Jason','Orta','j.orta@pelagic.co.uk');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -10467,8 +10900,12 @@
       <c r="I110" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('109','Kennebecker Retail','47 Increscent Road','Whitehaven','CA95 1DA','01446 2631117','Aswad','Clavey','a.clavey@kennebecker.co.uk');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -10496,8 +10933,12 @@
       <c r="I111" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('110','Bordure Services','91 Cryptarchy Hill','Latheron','KW26 0GG','01994 6094621','Noah','Zamorano','n.zamorano@bordure.co.uk');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -10525,8 +10966,12 @@
       <c r="I112" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('111','Uvelloid &amp; Co','3 Fantasticate Row','Mauchline','KA4 5DB','01590 5976045','Anton','Norquoy','a.norquoy@uvelloid.co.uk');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -10554,8 +10999,12 @@
       <c r="I113" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('112','Onymy Industrial','4 Lanuginose Road','Godalming','GU47 3GE','01784 4379272','Audley','Vanni','a.vanni@onymy.co.uk');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -10583,8 +11032,12 @@
       <c r="I114" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('113','Succinic Retail','80 Malleation Parkway','Abergavenny','NP17 7FE','01662 4626609','Hayden','Magnay','h.magnay@succinic.co.uk');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -10612,8 +11065,12 @@
       <c r="I115" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('114','Runnel Ltd.','34 Pendicle Dell','Malmesbury','SN47 7FA','01941 9474572','Ainsley','Spurrett','a.spurrett@runnel.co.uk');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -10641,8 +11098,12 @@
       <c r="I116" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('115','Apocrisiary Group','33 Carpophagous Row','Newhaven','BN78 6GE','01337 1072755','Charles','Comrie','c.comrie@apocrisiary.co.uk');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -10670,8 +11131,12 @@
       <c r="I117" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('116','Quagswag Group','75 Zosteriform Road','Berriedale','KW86 1AG','01788 3854851','Charlie','Hellmore','c.hellmore@quagswag.co.uk');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10699,8 +11164,12 @@
       <c r="I118" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('117','Mimetic Industrial','72 Craquelure Road','Castle Douglas','DG58 3BE','01782 2293559','Hari','Baitey','h.baitey@mimetic.co.uk');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10728,8 +11197,12 @@
       <c r="I119" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('118','Polonaise Ltd.','58 Parity Parkway','Coniston','LA24 8FE','01774 1017864','Vijay','Flips','v.flips@polonaise.co.uk');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10757,8 +11230,12 @@
       <c r="I120" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('119','Scatomancy Group','46 Ossia Road','Campbeltown','PA63 4FE','01817 7073667','Waseem','Boultwood','w.boultwood@scatomancy.co.uk');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -10786,8 +11263,12 @@
       <c r="I121" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('120','Phytogenesis Fabrication','46 Guipure Road','Penryn','TR59 8AB','01325 5340483','Walter','Aucutt','w.aucutt@phytogenesis.co.uk');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -10815,8 +11296,12 @@
       <c r="I122" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('121','Woolpack Ltd.','69 Breviary Canyon','Pevensey','BN82 3GF','01156 7140062','Cuthbert','Greenman','c.greenman@woolpack.co.uk');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -10844,8 +11329,12 @@
       <c r="I123" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('122','Postern Industrial','28 Jawhole Street','Rhosgoch','LL54 7FE','01801 2475948','Durant','Bofield','d.bofield@postern.co.uk');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -10873,8 +11362,12 @@
       <c r="I124" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('123','Colluctation Industrial','11 Scotoma Drive','Sutton Coldfield','B86 8GC','01439 4712749','Drew','Clemendet','d.clemendet@colluctation.co.uk');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10902,8 +11395,12 @@
       <c r="I125" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('124','Benefactive Fabrication','21 Cataplasm Hill','Chigwell','IG76 7AA','01417 4509421','Salim','Lawfull','s.lawfull@benefactive.co.uk');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10931,8 +11428,12 @@
       <c r="I126" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('125','Maculomancy Group','93 Chatelaine Passage','Shoreham-by-Sea','BN70 5GC','01839 6582301','Muhammad','Oventon','m.oventon@maculomancy.co.uk');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10960,8 +11461,12 @@
       <c r="I127" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('126','Trilaminar Industrial','32 Adventitious Road','Diss','IP34 3GC','01897 9455333','Fagan','De Ortega','f.de.ortega@trilaminar.co.uk');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10989,8 +11494,12 @@
       <c r="I128" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('127','Rusticate &amp; Co','50 Visibilia Rise','Guisborough','TS95 0FF','01792 4521014','Vijay','Guilford','v.guilford@rusticate.co.uk');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -11018,8 +11527,12 @@
       <c r="I129" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('128','Hylomania Plc','8 Subreptary Mount','Newry','BT33 7DC','01625 8354711','Amos','MacDonogh','a.macdonogh@hylomania.co.uk');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -11047,8 +11560,12 @@
       <c r="I130" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('129','Pecuniary Inc.','1 Undern Place','Northwood','HA48 3BE','01481 7507978','Brennan','Ollerhad','b.ollerhad@pecuniary.co.uk');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -11076,8 +11593,12 @@
       <c r="I131" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" t="str">
+        <f t="shared" ref="J131:J194" si="2">"INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('"&amp;A131&amp;"','"&amp;B131&amp;"','"&amp;C131&amp;"','"&amp;D131&amp;"','"&amp;E131&amp;"','"&amp;F131&amp;"','"&amp;G131&amp;"','"&amp;H131&amp;"','"&amp;I131&amp;"');"</f>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('130','Mollitious Inc.','27 Torquated Green','Caterham','CR80 6GD','01276 1587660','Salvador','Ziehm','s.ziehm@mollitious.co.uk');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11105,8 +11626,12 @@
       <c r="I132" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('131','Pontage Group','67 Sable Rise','Auchterarder','PH78 1FD','01908 3214320','Anand','Longega','a.longega@pontage.co.uk');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -11134,8 +11659,12 @@
       <c r="I133" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('132','Flysch &amp; Co','73 Quiddle Road','Mallaig','PH28 8BB','01972 6808836','Abdul','Gregorio','a.gregorio@flysch.co.uk');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -11163,8 +11692,12 @@
       <c r="I134" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('133','Vermigrade Inc.','1 Erythropsia Hill','Leven','KY18 1GF','01277 2727782','Patrick','Imms','p.imms@vermigrade.co.uk');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -11192,8 +11725,12 @@
       <c r="I135" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('134','Bletherskate Ltd.','77 Jumboism Street','Kinlochleven','PH83 2FB','01342 6149445','Wayne','Ellington','w.ellington@bletherskate.co.uk');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -11221,8 +11758,12 @@
       <c r="I136" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('135','Pityroid Inc.','91 Gigue Path','Castlederg','BT96 0CD','01853 8990165','Jacob','Itzhayek','j.itzhayek@pityroid.co.uk');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11250,8 +11791,12 @@
       <c r="I137" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('136','Statolatry Fabrication','22 Amphipneust Circle','Crumlin','BT78 2BG','01591 7934454','Hanif','Jiles','h.jiles@statolatry.co.uk');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11279,8 +11824,12 @@
       <c r="I138" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('137','Vespine &amp; Co','67 Chimerical Causeway','Cleator','CA51 7BG','01484 1382043','Clinton','Mazdon','c.mazdon@vespine.co.uk');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -11308,8 +11857,12 @@
       <c r="I139" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('138','Tautomerism Plc','94 Epuration Street','Bakewell','DE88 1EB','01640 1940745','Oliver','Spennock','o.spennock@tautomerism.co.uk');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -11337,8 +11890,12 @@
       <c r="I140" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('139','Ziganka Plc','84 Timarchy Hill','Llanwrtyd Wells','LD84 0BE','01420 6361796','Humphrey','Briggdale','h.briggdale@ziganka.co.uk');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -11366,8 +11923,12 @@
       <c r="I141" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('140','Mollipilose Inc.','23 Aphicide Road','Torpoint','PL4 5AF','01643 9554036','William','Langdale','w.langdale@mollipilose.co.uk');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -11395,8 +11956,12 @@
       <c r="I142" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('141','Profligate Plc','6 Fusee Drive','Colne','BB72 7GE','01597 7442589','Oscar','Cranstone','o.cranstone@profligate.co.uk');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -11424,8 +11989,12 @@
       <c r="I143" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('142','Prevoyant Fabrication','85 Mollycoddle Circle','Herne Bay','CT7 3GB','01578 7805746','Bill','Eastbrook','b.eastbrook@prevoyant.co.uk');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -11453,8 +12022,12 @@
       <c r="I144" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('143','Eulogomania Group','45 Sericulture Street','Stamford','PE55 7EC','01961 7852878','Jed','Edds','j.edds@eulogomania.co.uk');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -11482,8 +12055,12 @@
       <c r="I145" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('144','Inoperculate Services','20 Darcy Green','Penrhyndeudraeth','LL91 2EB','01361 4081343','Drew','Acutt','d.acutt@inoperculate.co.uk');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -11511,8 +12088,12 @@
       <c r="I146" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('145','Aesthesia Group','85 Atactic Passage','Caledon','BT91 5DC','01238 3812431','Stephen','Atkyns','s.atkyns@aesthesia.co.uk');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -11540,8 +12121,12 @@
       <c r="I147" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('146','Ratline Plc','31 Pyrrhuline Causeway','Crediton','EX82 5DC','0112 3217738','Niall','Strowlger','n.strowlger@ratline.co.uk');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -11569,8 +12154,12 @@
       <c r="I148" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('147','Aerostatics &amp; Co','5 Bumicky Hill','Strome Ferry','IV16 4GB','01226 9456635','Magnus','Ogglebie','m.ogglebie@aerostatics.co.uk');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -11598,8 +12187,12 @@
       <c r="I149" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('148','Statolith Fabrication','37 Monoliteral Square','Exeter','EX27 6BB','01251 5369501','Marcus','Francois','m.francois@statolith.co.uk');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -11627,8 +12220,12 @@
       <c r="I150" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('149','Syssitia &amp; Co','2 Cancrizans Path','Lichfield','WS23 1CD','01384 7032960','Nasser','Di Napoli','n.di.napoli@syssitia.co.uk');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -11656,8 +12253,12 @@
       <c r="I151" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('150','Stipiform Industrial','24 Poult Street','Milltimber','AB63 6EE','01601 9775731','Warren','Etherington','w.etherington@stipiform.co.uk');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -11685,8 +12286,12 @@
       <c r="I152" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('151','Sphingal &amp; Co','31 Jactation Hill','Hemel Hempstead','HP29 8DA','01564 4141846','Amon','Beggs','a.beggs@sphingal.co.uk');</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -11714,8 +12319,12 @@
       <c r="I153" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('152','Quiddany Industrial','34 Sprag Road','Exeter','EX26 8GC','01850 1734178','Wesley','Foynes','w.foynes@quiddany.co.uk');</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -11743,8 +12352,12 @@
       <c r="I154" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('153','Sarmentum &amp; Co','28 Abreuvoir Street','Lechlade','GL17 8EF','01714 5974985','Sheridan','Rowes','s.rowes@sarmentum.co.uk');</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -11772,8 +12385,12 @@
       <c r="I155" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('154','Pyrognomic Inc.','28 Exiguous Green','Sheffield','S96 3GA','01715 3076339','Boris','Petch','b.petch@pyrognomic.co.uk');</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -11801,8 +12418,12 @@
       <c r="I156" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('155','Waldhorn Plc','50 Zinnia Circle','Manningtree','CO37 1FA','01314 7202121','Adair','Dilnot','a.dilnot@waldhorn.co.uk');</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -11830,8 +12451,12 @@
       <c r="I157" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('156','Pyrosis Group','79 Concetto Rise','Corby','NN71 0CG','01601 6931213','Romeo','Bilston','r.bilston@pyrosis.co.uk');</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -11859,8 +12484,12 @@
       <c r="I158" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('157','Poaceous &amp; Co','3 Cryoscope Dell','Cleckheaton','BD7 4EG','0155 3760815','Fabian','Blackey','f.blackey@poaceous.co.uk');</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -11888,8 +12517,12 @@
       <c r="I159" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('158','Kritarchy Plc','58 Scapigerous Gardens','Whitchurch','RG11 6FA','01433 2479885','Ferdinand','Bendley','f.bendley@kritarchy.co.uk');</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -11917,8 +12550,12 @@
       <c r="I160" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('159','Chintz Inc.','39 Herbarium Parkway','Doncaster','DN15 5AB','01520 1959752','Gene','Perllman','g.perllman@chintz.co.uk');</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -11946,8 +12583,12 @@
       <c r="I161" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('160','Misaunter Fabrication','7 Deckle Mount','Cardiff','CF69 0CE','01865 3779512','Alastair','Bowdler','a.bowdler@misaunter.co.uk');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -11975,8 +12616,12 @@
       <c r="I162" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('161','Creophagous Retail','65 Officious Road','Sheringham','NR96 0EG','01867 8332333','Jethro','Dawks','j.dawks@creophagous.co.uk');</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -12004,8 +12649,12 @@
       <c r="I163" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('162','Pogonotomy &amp; Co','55 Kennebecker Drive','Currie','EH32 7FG','01779 6560582','Warren','Peskett','w.peskett@pogonotomy.co.uk');</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -12033,8 +12682,12 @@
       <c r="I164" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('163','Pencilliform Plc','71 Slumberous Gate','Alston','CA33 0FB','01805 9247888','Theodore','Lenormand','t.lenormand@pencilliform.co.uk');</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -12062,8 +12715,12 @@
       <c r="I165" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('164','Amphipneust Industrial','59 Octarius Mount','Isle of Mull','PA73 2AF','01301 1136567','Elan','Tellenbrook','e.tellenbrook@amphipneust.co.uk');</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -12091,8 +12748,12 @@
       <c r="I166" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('165','Cardialgia Ltd.','20 Estrade Parkway','Carterton','OX1 0DG','01769 7285016','Campbell','Fairest','c.fairest@cardialgia.co.uk');</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -12120,8 +12781,12 @@
       <c r="I167" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('166','Bourdon Ltd.','40 Satyrism Street','Rugeley','WS45 5BG','01283 9744355','Anton','Feak','a.feak@bourdon.co.uk');</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -12149,8 +12814,12 @@
       <c r="I168" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('167','Wholestitch Group','51 Locative Mount','Guildford','GU74 6FD','01183 8622860','Michael','Vautin','m.vautin@wholestitch.co.uk');</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -12178,8 +12847,12 @@
       <c r="I169" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('168','Oryzivorous Retail','84 Isostere Parkway','Boat of Garten','PH23 4CG','01291 9006531','Benjamin','McGilleghole','b.mcgilleghole@oryzivorous.co.uk');</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -12207,8 +12880,12 @@
       <c r="I170" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('169','Resorb Ltd.','91 Senectuous Parkway','Kendal','LA38 8BA','0174 6716926','Aswad','Bennell','a.bennell@resorb.co.uk');</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -12236,8 +12913,12 @@
       <c r="I171" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('170','Myriarchy Inc.','22 Metaplasm Gardens','Salcombe','TQ48 6CB','01331 9569446','Arden','Carwithim','a.carwithim@myriarchy.co.uk');</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -12265,8 +12946,12 @@
       <c r="I172" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('171','Collegialism Ltd.','60 Ebeneous Passage','Littlehampton','BN49 0FG','01884 9896633','Addison','Fernehough','a.fernehough@collegialism.co.uk');</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -12294,8 +12979,12 @@
       <c r="I173" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('172','Boston Fabrication','50 Abditive Gardens','Newcastle Emlyn','SA67 5AD','0168 9566786','Geraint','Navarre','g.navarre@boston.co.uk');</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -12323,8 +13012,12 @@
       <c r="I174" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('173','Frottage Plc','31 Mazarine Canyon','Frodsham','WA25 6FB','01339 9965857','Lee','Machans','l.machans@frottage.co.uk');</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -12352,8 +13045,12 @@
       <c r="I175" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('174','Araneous &amp; Co','59 Libration Rise','Dinas Powys','CF25 8AE','01381 9800802','Archibald','Vasilischev','a.vasilischev@araneous.co.uk');</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -12381,8 +13078,12 @@
       <c r="I176" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('175','Prepollence Services','83 Conation Canyon','Prestatyn','LL6 1FA','01317 4566591','Hubert','Louden','h.louden@prepollence.co.uk');</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -12410,8 +13111,12 @@
       <c r="I177" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('176','Obrogate &amp; Co','14 Antichthon Circle','Baldock','SG0 6BF','01549 4842949','Pablo','Zavattero','p.zavattero@obrogate.co.uk');</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -12439,8 +13144,12 @@
       <c r="I178" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('177','Railophone Services','52 Gilderoy Mews','Glenfinnan','PH40 4BG','01589 4000573','Crispin','Goering','c.goering@railophone.co.uk');</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -12468,8 +13177,12 @@
       <c r="I179" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('178','Meteorism Retail','27 Spleniculus Parkway','Virginia Water','GU74 8CG','01154 3279864','Errol','Binion','e.binion@meteorism.co.uk');</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -12497,8 +13210,12 @@
       <c r="I180" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('179','Epulotic Group','69 Thalweg Street','Kings Langley','WD31 3BE','01801 2459906','Keir','Velte','k.velte@epulotic.co.uk');</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -12526,8 +13243,12 @@
       <c r="I181" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('180','Geotechnics &amp; Co','45 Countenance Passage','South Molton','EX38 2EA','01951 3530593','Tariq','Slot','t.slot@geotechnics.co.uk');</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -12555,8 +13276,12 @@
       <c r="I182" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('181','Pathogenesis Industrial','6 Vinolent Dell','Auchterarder','PH79 7FB','01873 4860041','Rodney','Bourthoumieux','r.bourthoumieux@pathogenesis.co.uk');</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -12584,8 +13309,12 @@
       <c r="I183" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('182','Aplanatic Fabrication','84 Vivandiere Hill','Innerleithen','EH94 8FD','01321 7535362','Sadiq','Sprigin','s.sprigin@aplanatic.co.uk');</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -12613,8 +13342,12 @@
       <c r="I184" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('183','Superfetate Inc.','70 Skellum Street','West Molesey','KT12 3AA','01796 7251379','Leonard','Seivertsen','l.seivertsen@superfetate.co.uk');</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -12642,8 +13375,12 @@
       <c r="I185" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('184','Pygal Retail','14 Poetomachia Circle','Lynton','EX56 0BC','01551 2336463','Solomon','Vella','s.vella@pygal.co.uk');</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -12671,8 +13408,12 @@
       <c r="I186" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('185','Wigan Industrial','23 Triplopia Green','Larbert','FK63 1CF','01209 8803446','Romeo','Stag','r.stag@wigan.co.uk');</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -12700,8 +13441,12 @@
       <c r="I187" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('186','Megathermic Inc.','93 Internuncio Street','Crewe','CW95 3AF','01416 1943205','Andrew','Olivia','a.olivia@megathermic.co.uk');</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -12729,8 +13474,12 @@
       <c r="I188" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('187','Guidon Plc','10 Subturbary Avenue','Macclesfield','SK22 0FF','01672 8244048','Ulric','Roggers','u.roggers@guidon.co.uk');</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -12758,8 +13507,12 @@
       <c r="I189" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('188','Matriotism Plc','71 Phytogenesis Avenue','Calne','SN21 0FE','01921 3232418','Saul','Kimblen','s.kimblen@matriotism.co.uk');</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -12787,8 +13540,12 @@
       <c r="I190" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('189','Milquetoast Group','95 Asperge Circle','Radstock','BA82 3DC','01376 3302628','Edward','Lampke','e.lampke@milquetoast.co.uk');</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -12816,8 +13573,12 @@
       <c r="I191" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('190','Cenote Plc','54 Callithump Street','Romsey','SO56 4BE','01362 6797786','Abbas','Domonkos','a.domonkos@cenote.co.uk');</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -12845,8 +13606,12 @@
       <c r="I192" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('191','Gigot Group','76 Duramen Street','Chichester','PO63 8FG','01305 8030377','Gene','Debell','g.debell@gigot.co.uk');</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -12874,8 +13639,12 @@
       <c r="I193" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('192','Penniform Services','67 Lucripetous Hill','Bungay','NR92 8CC','01378 6896757','Fraser','MacAlroy','f.macalroy@penniform.co.uk');</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -12903,8 +13672,12 @@
       <c r="I194" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('193','Coadunate Retail','55 Creant Street','Tighnabruaich','PA51 5FD','01353 7769687','Noah','Wasselin','n.wasselin@coadunate.co.uk');</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -12932,8 +13705,12 @@
       <c r="I195" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" t="str">
+        <f t="shared" ref="J195:J258" si="3">"INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('"&amp;A195&amp;"','"&amp;B195&amp;"','"&amp;C195&amp;"','"&amp;D195&amp;"','"&amp;E195&amp;"','"&amp;F195&amp;"','"&amp;G195&amp;"','"&amp;H195&amp;"','"&amp;I195&amp;"');"</f>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('194','Judogi Fabrication','82 Aquaphobia Road','Stevenston','KA54 2EC','01668 1902205','Abraham','Braams','a.braams@judogi.co.uk');</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -12961,8 +13738,12 @@
       <c r="I196" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('195','Lageniform Group','14 Whinstone Road','Insch','AB6 0GB','01694 4474940','Denzil','Wight','d.wight@lageniform.co.uk');</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -12990,8 +13771,12 @@
       <c r="I197" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('196','Epithesis Group','63 Desultory Causeway','Kenley','CR20 8EA','01178 3959279','Byron','Lovejoy','b.lovejoy@epithesis.co.uk');</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -13019,8 +13804,12 @@
       <c r="I198" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('197','Enation Plc','66 Pronograde Dell','Forfar','DD97 0DE','01926 3997504','Bill','Wolford','b.wolford@enation.co.uk');</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -13048,8 +13837,12 @@
       <c r="I199" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('198','Afore Industrial','97 Aplanatic Green','Manchester','M60 8AD','01190 3824125','Aswad','Minillo','a.minillo@afore.co.uk');</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -13077,8 +13870,12 @@
       <c r="I200" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('199','Jebel Inc.','56 Subnubilar Gate','Carshalton','SM50 5FB','0155 9467309','Gerald','O''Corrin','g.ocorrin@jebel.co.uk');</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -13106,8 +13903,12 @@
       <c r="I201" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('200','Flapdoodle Plc','18 Vimen Gardens','Penryn','TR72 7BD','01300 2151882','Gerald','Meachan','g.meachan@flapdoodle.co.uk');</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -13135,8 +13936,12 @@
       <c r="I202" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('201','Exsanguinous Ltd.','18 Minimism Dell','Alnwick','NE14 4GC','01475 9479272','Carl','Goodbarne','c.goodbarne@exsanguinous.co.uk');</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -13164,8 +13969,12 @@
       <c r="I203" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('202','Lithophilous &amp; Co','34 Tyrannicide Street','Rugeley','WS0 1BA','01678 3812167','Bailey','Koschke','b.koschke@lithophilous.co.uk');</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -13193,8 +14002,12 @@
       <c r="I204" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('203','Witherling Group','64 Lurdan Drive','Newport Pagnell','MK45 6BG','01164 2564531','Andrew','Sealove','a.sealove@witherling.co.uk');</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -13222,8 +14035,12 @@
       <c r="I205" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('204','Intrados Industrial','78 Trochiform Circle','Lancaster','LA80 8FF','01263 6136215','Sherman','Golder','s.golder@intrados.co.uk');</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -13251,8 +14068,12 @@
       <c r="I206" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('205','Halitus &amp; Co','30 Volvelle Lane','Bonnyrigg','EH34 8BD','01644 5440696','Calvin','Glancy','c.glancy@halitus.co.uk');</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -13280,8 +14101,12 @@
       <c r="I207" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('206','Iconomachy Services','46 Synaeresis Square','Aberfeldy','PH65 3FE','01660 2260220','Brett','Inglefield','b.inglefield@iconomachy.co.uk');</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -13309,8 +14134,12 @@
       <c r="I208" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('207','Theophile Ltd.','11 Gigue Gardens','Cumnock','KA94 1CF','01465 1092929','Kirk','Janas','k.janas@theophile.co.uk');</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -13338,8 +14167,12 @@
       <c r="I209" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('208','Resiniferous &amp; Co','32 Monachise Canyon','Newtownabbey','BT30 2BF','01793 8708793','Michael','Boncoeur','m.boncoeur@resiniferous.co.uk');</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -13367,8 +14200,12 @@
       <c r="I210" t="s">
         <v>1622</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('209','Cocket Services','91 Chirospasm Lane','Colintraive','PA40 7DG','01720 4870059','Basil','Wychard','b.wychard@cocket.co.uk');</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -13396,8 +14233,12 @@
       <c r="I211" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('210','Induviae Plc','92 Plumbless Path','Axbridge','BS26 6EG','01556 3488019','Tristram','Mousby','t.mousby@induviae.co.uk');</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -13425,8 +14266,12 @@
       <c r="I212" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('211','Georgette Ltd.','29 Lineament Gate','Kenley','CR52 8CA','01984 2024248','Gilbert','Arguile','g.arguile@georgette.co.uk');</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -13454,8 +14299,12 @@
       <c r="I213" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('212','Quarter Retail','95 Brontophobia Street','Bo''ness','EH55 7FF','01453 2055671','Warren','Ioannou','w.ioannou@quarter.co.uk');</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -13483,8 +14332,12 @@
       <c r="I214" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('213','Brontomancy Services','24 Brash Gate','Ipswich','IP14 4FC','01562 9674658','Horatio','Balaisot','h.balaisot@brontomancy.co.uk');</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -13512,8 +14365,12 @@
       <c r="I215" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('214','Chapbook Fabrication','7 Pangram Mount','Canterbury','CT6 6CB','01964 6456311','Bede','Dominicacci','b.dominicacci@chapbook.co.uk');</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -13541,8 +14398,12 @@
       <c r="I216" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('215','Hortulan Retail','8 Wagtail Circle','Mallaig','PH3 2EG','01308 4842971','Boyd','Clive','b.clive@hortulan.co.uk');</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -13570,8 +14431,12 @@
       <c r="I217" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('216','Grauncher Services','45 Esotropic Square','Ely','CB38 6GG','01685 8794982','Peter','Guirard','p.guirard@grauncher.co.uk');</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -13599,8 +14464,12 @@
       <c r="I218" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('217','Dispread Group','38 Slumberous Street','Stockton-on-Tees','TS64 4BF','01777 9794994','Maximilian','Smithend','m.smithend@dispread.co.uk');</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -13628,8 +14497,12 @@
       <c r="I219" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('218','Mechanism Retail','38 Qually Square','Bracknell','RG81 4FD','01498 9469952','Theobald','Bainton','t.bainton@mechanism.co.uk');</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -13657,8 +14530,12 @@
       <c r="I220" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('219','Pediform Group','46 Poplin Road','Innerleithen','EH34 0FE','01375 3381642','Marley','Stamps','m.stamps@pediform.co.uk');</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -13686,8 +14563,12 @@
       <c r="I221" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('220','Crepitus Industrial','27 Logocracy Circle','Llanbrynmair','SY97 6GB','01449 6592347','David','Matthewman','d.matthewman@crepitus.co.uk');</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -13715,8 +14596,12 @@
       <c r="I222" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('221','Scranch Fabrication','70 Paragenesis Passage','Normanton','WF23 7CB','01476 2619948','Oscar','Menure','o.menure@scranch.co.uk');</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -13744,8 +14629,12 @@
       <c r="I223" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('222','Barton Ltd.','28 Secund Hill','Lanark','ML9 7DG','01518 1145636','Hiroshi','Le Guin','h.le.guin@barton.co.uk');</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -13773,8 +14662,12 @@
       <c r="I224" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('223','Insipience Plc','9 Barras Road','Henfield','BN45 5FB','01180 4618408','Arun','Poli','a.poli@insipience.co.uk');</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -13802,8 +14695,12 @@
       <c r="I225" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('224','Webster Industrial','77 Escutcheon Avenue','Taynuilt','PA75 3AA','01648 4402492','Dirk','Youngs','d.youngs@webster.co.uk');</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -13831,8 +14728,12 @@
       <c r="I226" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('225','Byrnie Services','25 Tallage Mount','Grantham','NG45 5AE','01812 7294412','Rogan','Waggatt','r.waggatt@byrnie.co.uk');</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -13860,8 +14761,12 @@
       <c r="I227" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('226','Choreomania Ltd.','77 Polyphyletic Gate','Buckie','AB52 5CF','01917 2007904','Kenneth','Cauldfield','k.cauldfield@choreomania.co.uk');</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -13889,8 +14794,12 @@
       <c r="I228" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('227','Philomelian Industrial','28 Codicil Gate','Swaffham','PE76 8GA','01847 2779052','Gregory','Dudny','g.dudny@philomelian.co.uk');</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -13918,8 +14827,12 @@
       <c r="I229" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('228','Fandango Group','4 Volitant Gate','Street','BA92 8GC','0184 2882142','Marvin','Elis','m.elis@fandango.co.uk');</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -13947,8 +14860,12 @@
       <c r="I230" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('229','Inculpate Plc','20 Bestiarian Circle','Umberleigh','EX86 0EB','01305 2402787','Keith','McKelvie','k.mckelvie@inculpate.co.uk');</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -13976,8 +14893,12 @@
       <c r="I231" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('230','Isorithm Group','95 Pantomorphic Avenue','Colne','BB73 7CF','01109 8303697','Tate','Chatelain','t.chatelain@isorithm.co.uk');</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -14005,8 +14926,12 @@
       <c r="I232" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('231','Idolothyte Fabrication','34 Angary Mount','Newton Stewart','DG95 8EA','01752 9987108','Horace','Seear','h.seear@idolothyte.co.uk');</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -14034,8 +14959,12 @@
       <c r="I233" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('232','Apolaustic Inc.','13 Silenus Road','Llanfechain','SY35 8AG','01257 3843576','Maximilian','Dobbyn','m.dobbyn@apolaustic.co.uk');</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -14063,8 +14992,12 @@
       <c r="I234" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('233','Spinnaker Industrial','48 Syndicalism Parkway','Linlithgow','EH11 8GA','01666 7497846','Keane','Gomm','k.gomm@spinnaker.co.uk');</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -14092,8 +15025,12 @@
       <c r="I235" t="s">
         <v>1808</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('234','Sempiternal &amp; Co','78 Phanerosis Road','Birchington','CT7 1FF','01853 4914269','Addison','Cortnay','a.cortnay@sempiternal.co.uk');</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -14121,8 +15058,12 @@
       <c r="I236" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('235','Rhonchial Retail','95 Operose Street','Holywell','CH94 0ED','01532 7600338','Nicholas','Blackledge','n.blackledge@rhonchial.co.uk');</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -14150,8 +15091,12 @@
       <c r="I237" t="s">
         <v>1823</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('236','Melanochroic Ltd.','85 Acrologic Canyon','Hyde','SK35 7BA','01965 2700949','Campbell','Ivakhin','c.ivakhin@melanochroic.co.uk');</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -14179,8 +15124,12 @@
       <c r="I238" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('237','Estival Retail','22 Hypomania Street','Saltash','PL90 3BE','01263 1276148','Horace','Gillise','h.gillise@estival.co.uk');</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -14208,8 +15157,12 @@
       <c r="I239" t="s">
         <v>1837</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('238','Decamerous Fabrication','39 Almagest Gardens','Harrogate','HG74 5GA','01296 7679711','Barney','Ineson','b.ineson@decamerous.co.uk');</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -14237,8 +15190,12 @@
       <c r="I240" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('239','Gawdelpus &amp; Co','34 Hyperbaton Lane','Ashby-de-la-Zouch','LE21 0DG','01715 2108126','Casper','Jiggens','c.jiggens@gawdelpus.co.uk');</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -14266,8 +15223,12 @@
       <c r="I241" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('240','Howdah Ltd.','50 Curate Rise','Aberfeldy','PH2 8AD','01175 2091713','Granville','Rubenfeld','g.rubenfeld@howdah.co.uk');</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -14295,8 +15256,12 @@
       <c r="I242" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('241','Chaplet Retail','2 Rhabdos Place','Llanerchymedd','LL55 0BE','01527 8012161','Desmond','Reyburn','d.reyburn@chaplet.co.uk');</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -14324,8 +15289,12 @@
       <c r="I243" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('242','Phrontistery Ltd.','42 Navalism Passage','Hertford','SG39 4FE','0165 4738136','Magnus','Haglington','m.haglington@phrontistery.co.uk');</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14353,8 +15322,12 @@
       <c r="I244" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('243','Kylin Ltd.','9 Saffron Gate','Bakewell','DE96 6CG','01118 5964303','Broderick','Kissick','b.kissick@kylin.co.uk');</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14382,8 +15355,12 @@
       <c r="I245" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('244','Verruca Group','17 Chypre Green','Lampeter','SA85 7GC','01107 1487546','Bartholomew','Bidgod','b.bidgod@verruca.co.uk');</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14411,8 +15388,12 @@
       <c r="I246" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('245','Verily Group','52 Zebrinny Square','Orkney','KW43 3DE','01725 1549059','Ewan','Finlry','e.finlry@verily.co.uk');</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -14440,8 +15421,12 @@
       <c r="I247" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('246','Circumpose Plc','48 Aciniform Lane','Gateshead','NE77 6GB','01893 6634451','Samuel','Scobbie','s.scobbie@circumpose.co.uk');</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -14469,8 +15454,12 @@
       <c r="I248" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('247','Riant Inc.','78 Noosphere Hill','Herne Bay','CT64 5CB','01887 4061228','Nadim','Thomson','n.thomson@riant.co.uk');</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -14498,8 +15487,12 @@
       <c r="I249" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('248','Nymphean Retail','22 Xeric Street','Great Yarmouth','NR90 0BB','01625 9256128','Kelvin','Keningley','k.keningley@nymphean.co.uk');</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -14527,8 +15520,12 @@
       <c r="I250" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('249','Ligniform &amp; Co','82 Incunabulist Avenue','Alford','AB55 1EF','01582 1776551','Elden','Tinker','e.tinker@ligniform.co.uk');</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -14556,8 +15553,12 @@
       <c r="I251" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('250','Tovarish Retail','12 Sejunction Canyon','Glossop','SK39 6AA','01191 7005432','Bruce','Burl','b.burl@tovarish.co.uk');</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -14585,8 +15586,12 @@
       <c r="I252" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('251','Headstock Plc','75 Bulliform Canyon','Cleator','CA78 8DE','01188 4455812','Gregory','Raden','g.raden@headstock.co.uk');</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -14614,8 +15619,12 @@
       <c r="I253" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('252','Fungiform Inc.','22 Pornocracy Canyon','Pentre','CF81 1FB','01347 1303403','Rudyard','McVicker','r.mcvicker@fungiform.co.uk');</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -14643,8 +15652,12 @@
       <c r="I254" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('253','Piscatorial Industrial','45 Portmanteau Road','Weston-super-Mare','BS34 1GF','01361 3783713','Sidney','Dawdary','s.dawdary@piscatorial.co.uk');</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -14672,8 +15685,12 @@
       <c r="I255" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('254','Panopticon Services','9 Tressure Gate','Henley-on-Thames','RG74 6AG','0176 2404068','Niall','Ryland','n.ryland@panopticon.co.uk');</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -14701,8 +15718,12 @@
       <c r="I256" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('255','Spicaceous Industrial','26 Excresence Street','Pontypool','NP61 5BB','01201 7695030','Regan','Daley','r.daley@spicaceous.co.uk');</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -14730,8 +15751,12 @@
       <c r="I257" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('256','Splenium Industrial','58 Etesian Circle','New Tredegar','NP94 1FA','01854 4774810','Damien','Bwye','d.bwye@splenium.co.uk');</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -14759,8 +15784,12 @@
       <c r="I258" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('257','Plantar Plc','22 Charterhouse Dell','Wigton','CA64 2EC','0182 1840556','Owen','Pressman','o.pressman@plantar.co.uk');</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -14788,8 +15817,12 @@
       <c r="I259" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" t="str">
+        <f t="shared" ref="J259:J301" si="4">"INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('"&amp;A259&amp;"','"&amp;B259&amp;"','"&amp;C259&amp;"','"&amp;D259&amp;"','"&amp;E259&amp;"','"&amp;F259&amp;"','"&amp;G259&amp;"','"&amp;H259&amp;"','"&amp;I259&amp;"');"</f>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('258','Dysaesthesia Services','4 Onychoid Road','Beckenham','BR91 8FF','01987 5781834','Magnus','Jarad','m.jarad@dysaesthesia.co.uk');</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -14817,8 +15850,12 @@
       <c r="I260" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('259','Officialism &amp; Co','54 Linaceous Mount','Attleborough','NR2 1EG','01922 9561484','Magnus','McCarrick','m.mccarrick@officialism.co.uk');</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -14846,8 +15883,12 @@
       <c r="I261" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('260','Lamelliform Plc','97 Acanthous Drive','Gerrards Cross','SL39 8EA','01745 7396305','Edmund','Whimpenny','e.whimpenny@lamelliform.co.uk');</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -14875,8 +15916,12 @@
       <c r="I262" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('261','Tiromancy Inc.','28 Infaust Road','Balerno','EH30 7AE','01603 6093388','Vincent','Jeskin','v.jeskin@tiromancy.co.uk');</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -14904,8 +15949,12 @@
       <c r="I263" t="s">
         <v>2013</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('262','Gyrostatics Group','12 Vidimus Mount','Bingley','BD46 3EA','01597 6216564','Earle','Manes','e.manes@gyrostatics.co.uk');</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -14933,8 +15982,12 @@
       <c r="I264" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('263','Tuille Inc.','35 Steric Lane','Callington','PL78 0AF','01798 1752084','Prince','MacCoveney','p.maccoveney@tuille.co.uk');</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -14962,8 +16015,12 @@
       <c r="I265" t="s">
         <v>2029</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('264','Byssiferous Industrial','68 Nanism Green','Bromyard','HR68 1DF','01199 2636644','Kevin','Mossom','k.mossom@byssiferous.co.uk');</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -14991,8 +16048,12 @@
       <c r="I266" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('265','Cryptonym &amp; Co','59 Oxygeusia Gardens','Llanon','SY58 1DF','01741 4675178','Errol','Pauleit','e.pauleit@cryptonym.co.uk');</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -15020,8 +16081,12 @@
       <c r="I267" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('266','Mariculture Fabrication','86 Peirastic Street','Torpoint','PL62 4BE','01615 5211332','Wynn','O''Kelly','w.okelly@mariculture.co.uk');</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -15049,8 +16114,12 @@
       <c r="I268" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('267','Prolusion Industrial','52 Helobious Passage','Peterhead','AB10 8GA','01104 1418229','Raphael','Scarlin','r.scarlin@prolusion.co.uk');</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -15078,8 +16147,12 @@
       <c r="I269" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('268','Gummiferous Inc.','21 Pseudacusis Row','Westcliff-on-Sea','SS29 0FF','01694 4058879','Francisco','Thing','f.thing@gummiferous.co.uk');</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -15107,8 +16180,12 @@
       <c r="I270" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('269','Succise Industrial','91 Locutory Road','Beaumaris','LL37 8DG','01782 9528943','Stephen','Villaret','s.villaret@succise.co.uk');</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -15136,8 +16213,12 @@
       <c r="I271" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('270','Statolatry Inc.','82 Dwile Circle','Newtown','SY19 0EC','01588 2081310','Theobald','Grigoriev','t.grigoriev@statolatry.co.uk');</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -15165,8 +16246,12 @@
       <c r="I272" t="s">
         <v>2077</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('271','Russophobia Plc','6 Sferics Dell','Roslin','EH46 1GE','0160 7573614','Fagan','Joliffe','f.joliffe@russophobia.co.uk');</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -15194,8 +16279,12 @@
       <c r="I273" t="s">
         <v>2085</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('272','Bismer Inc.','63 Dispurvey Road','Lightwater','GU27 4CG','01128 2812975','Ian','Frushard','i.frushard@bismer.co.uk');</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -15223,8 +16312,12 @@
       <c r="I274" t="s">
         <v>2092</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('273','Solacious Inc.','73 Enervate Lane','Newmilns','KA17 6BD','01925 3690476','Walter','Scouller','w.scouller@solacious.co.uk');</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -15252,8 +16345,12 @@
       <c r="I275" t="s">
         <v>2100</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('274','Phugoid Retail','99 Custrel Parkway','Meifod','SY15 1AB','01358 2764772','Nelson','Lenham','n.lenham@phugoid.co.uk');</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -15281,8 +16378,12 @@
       <c r="I276" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('275','Wilding &amp; Co','69 Pisiform Gate','St. Agnes','TR58 5EB','01956 1146324','Beau','Howard - Gater','b.howard.-.gater@wilding.co.uk');</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -15310,8 +16411,12 @@
       <c r="I277" t="s">
         <v>2115</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('276','Turriferous Group','54 Murally Circle','Newbridge','EH18 6BD','01956 2000818','Gilbert','Speerman','g.speerman@turriferous.co.uk');</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -15339,8 +16444,12 @@
       <c r="I278" t="s">
         <v>2123</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('277','Irrisory Group','57 Hierophant Street','Monmouth','NP75 7AD','01636 7763009','Landon','Kleinsinger','l.kleinsinger@irrisory.co.uk');</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -15368,8 +16477,12 @@
       <c r="I279" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('278','Longeron Plc','95 Nankeen Drive','Dinas Powys','CF63 1GG','01248 2789831','Fritz','Leetham','f.leetham@longeron.co.uk');</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -15397,8 +16510,12 @@
       <c r="I280" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('279','Plicated Fabrication','3 Nidatory Dell','Hassocks','BN19 2DC','01531 1874593','Xavier','Golborn','x.golborn@plicated.co.uk');</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -15426,8 +16543,12 @@
       <c r="I281" t="s">
         <v>2145</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('280','Alluvion Fabrication','64 Loxodrome Causeway','Ledbury','HR86 1FB','01529 6666817','Caldwell','Gasticke','c.gasticke@alluvion.co.uk');</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -15455,8 +16576,12 @@
       <c r="I282" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('281','Jointure Ltd.','26 Stapediform Circle','Cranleigh','GU52 4FA','0119 1150554','Doran','Bickford','d.bickford@jointure.co.uk');</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -15484,8 +16609,12 @@
       <c r="I283" t="s">
         <v>2160</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('282','Durity Services','63 Agnosic Avenue','Congleton','CW35 6DC','01322 3029826','Francisco','Wethey','f.wethey@durity.co.uk');</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -15513,8 +16642,12 @@
       <c r="I284" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('283','Contemper Retail','13 Spurion Mount','Colchester','CO22 2AC','01115 2101442','Erin','Keays','e.keays@contemper.co.uk');</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -15542,8 +16675,12 @@
       <c r="I285" t="s">
         <v>2174</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('284','Paraclete Group','86 Saburration Circle','Hornchurch','RM80 7DC','01296 4449238','Audley','Wharby','a.wharby@paraclete.co.uk');</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -15571,8 +16708,12 @@
       <c r="I286" t="s">
         <v>2182</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('285','Forcipate Industrial','98 Zelotic Gate','Chester le Street','DH83 5AG','01830 8430262','Caleb','Ricciardo','c.ricciardo@forcipate.co.uk');</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -15600,8 +16741,12 @@
       <c r="I287" t="s">
         <v>2190</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('286','Postmundane Industrial','75 Forfend Street','Downham Market','PE0 1CG','01692 3126827','Murray','Roback','m.roback@postmundane.co.uk');</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -15629,8 +16774,12 @@
       <c r="I288" t="s">
         <v>2198</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('287','Crachoir Fabrication','56 Zemindar Avenue','Driffield','YO60 1DE','01415 9040867','Price','Hillaby','p.hillaby@crachoir.co.uk');</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -15658,8 +16807,12 @@
       <c r="I289" t="s">
         <v>2206</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('288','Mizmaze Retail','33 Panophobia Street','Dunstable','LU38 3FC','01378 2988898','Eamon','Gurner','e.gurner@mizmaze.co.uk');</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -15687,8 +16840,12 @@
       <c r="I290" t="s">
         <v>2214</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('289','Solarism Plc','83 Theomancy Path','Holyhead','LL60 5AD','01127 4103718','Cary','Battabee','c.battabee@solarism.co.uk');</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -15716,8 +16873,12 @@
       <c r="I291" t="s">
         <v>2221</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('290','Bathykolpian Services','20 Lugubrious Mews','Duns','TD94 4BG','01771 1066099','Kevin','Binnie','k.binnie@bathykolpian.co.uk');</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15745,8 +16906,12 @@
       <c r="I292" t="s">
         <v>2227</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('291','Sybil Plc','38 Weighage Green','Ayr','KA61 7AG','01622 6382696','Stanley','Gatenby','s.gatenby@sybil.co.uk');</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -15774,8 +16939,12 @@
       <c r="I293" t="s">
         <v>2234</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('292','Geotaxis Plc','44 Oroide Street','Cobham','KT53 3DF','01490 3237392','Charlie','Wrought','c.wrought@geotaxis.co.uk');</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -15803,8 +16972,12 @@
       <c r="I294" t="s">
         <v>2241</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('293','Acaulescent Group','94 Geocentrism Path','Newbury','RG56 3EG','01848 2821928','Errol','Palatini','e.palatini@acaulescent.co.uk');</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -15832,8 +17005,12 @@
       <c r="I295" t="s">
         <v>2249</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('294','Pewfellow Plc','87 Chaetiferous Path','Fleetwood','FY65 5CB','01981 4299832','Nathan','D''Alwis','n.dalwis@pewfellow.co.uk');</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -15861,8 +17038,12 @@
       <c r="I296" t="s">
         <v>2256</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('295','Chevon Retail','91 Vorant Green','Isle of Jura','PA13 4DA','01148 7144473','Price','Tanzer','p.tanzer@chevon.co.uk');</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -15890,8 +17071,12 @@
       <c r="I297" t="s">
         <v>2262</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('296','Isophote Plc','83 Flaughter Place','Portland','DT52 5FB','01775 7797441','Hayden','Jirus','h.jirus@isophote.co.uk');</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -15919,8 +17104,12 @@
       <c r="I298" t="s">
         <v>2269</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('297','Hesychastic Retail','12 Agrizoiatry Road','Romsey','SO21 6DD','01323 7887024','Roy','Yole','r.yole@hesychastic.co.uk');</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -15948,8 +17137,12 @@
       <c r="I299" t="s">
         <v>2276</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('298','Theurgy Industrial','93 Burdet Avenue','Haverfordwest','SA89 3CC','01429 9621758','Bede','Twidell','b.twidell@theurgy.co.uk');</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -15977,8 +17170,12 @@
       <c r="I300" t="s">
         <v>2283</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('299','Staysail Fabrication','25 Curiosa Street','Glenfinnan','PH90 5GF','01579 6328130','Malik','Tetford','m.tetford@staysail.co.uk');</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -16005,6 +17202,10 @@
       </c>
       <c r="I301" t="s">
         <v>2289</v>
+      </c>
+      <c r="J301" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO customer(reference, company_name, address, town, post_code, telephone, contact_fname, contact_sname, contact_email) VALUES ('300','Diabrotic Fabrication','51 Conglutinate Passage','Gateshead','NE20 3BD','01827 9525678','Norris','Lochrie','n.lochrie@diabrotic.co.uk');</v>
       </c>
     </row>
   </sheetData>
